--- a/Team-Data/2007-08/12-10-2007-08.xlsx
+++ b/Team-Data/2007-08/12-10-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,79 +751,79 @@
         <v>34.2</v>
       </c>
       <c r="J2" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="K2" t="n">
         <v>0.439</v>
       </c>
       <c r="L2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.307</v>
+        <v>0.301</v>
       </c>
       <c r="O2" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="P2" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q2" t="n">
         <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
         <v>19.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
@@ -786,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="AR2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT2" t="n">
         <v>24</v>
       </c>
-      <c r="AT2" t="n">
-        <v>21</v>
-      </c>
       <c r="AU2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -816,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1165,13 +1232,13 @@
         <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1323,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
         <v>24</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
         <v>4</v>
@@ -1344,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="AV5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
@@ -1353,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -1472,25 +1539,25 @@
         <v>-5.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1505,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>20</v>
@@ -1514,7 +1581,7 @@
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1526,22 +1593,22 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.636</v>
+        <v>0.619</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,70 +1661,70 @@
         <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>78.7</v>
+        <v>79.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.469</v>
+        <v>0.466</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345</v>
+        <v>0.341</v>
       </c>
       <c r="O7" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="P7" t="n">
         <v>28.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.838</v>
+        <v>0.847</v>
       </c>
       <c r="R7" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AA7" t="n">
         <v>22.9</v>
       </c>
-      <c r="AA7" t="n">
-        <v>22.7</v>
-      </c>
       <c r="AB7" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,25 +1733,25 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>1</v>
@@ -1702,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>18</v>
@@ -1714,16 +1781,16 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
         <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>5</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1857,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
@@ -1899,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
       </c>
       <c r="AF9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>5</v>
@@ -2036,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2045,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
@@ -2054,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>15</v>
@@ -2066,7 +2133,7 @@
         <v>23</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2075,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
@@ -2245,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.524</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J11" t="n">
-        <v>81.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L11" t="n">
         <v>6.1</v>
@@ -2334,52 +2401,52 @@
         <v>19.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O11" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="R11" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T11" t="n">
         <v>44.1</v>
       </c>
       <c r="U11" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2388,10 +2455,10 @@
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2400,10 +2467,10 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>14</v>
@@ -2412,19 +2479,19 @@
         <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>11</v>
@@ -2433,16 +2500,16 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2573,10 +2640,10 @@
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2627,19 +2694,19 @@
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2791,19 +2858,19 @@
         <v>25</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
         <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -2815,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>4.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2976,7 +3043,7 @@
         <v>5</v>
       </c>
       <c r="AT14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
@@ -2988,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-2</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3158,19 +3225,19 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.286</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.68</v>
+        <v>0.672</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="T16" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="U16" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
@@ -3277,25 +3344,25 @@
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>92</v>
       </c>
       <c r="AC16" t="n">
-        <v>-4.4</v>
+        <v>-4.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
         <v>28</v>
@@ -3307,28 +3374,28 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>30</v>
@@ -3337,13 +3404,13 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
@@ -3352,22 +3419,22 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.421</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,67 +3481,67 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>20.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3486,28 +3553,28 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
         <v>14</v>
       </c>
-      <c r="AK17" t="n">
-        <v>15</v>
-      </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
         <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3516,34 +3583,34 @@
         <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW17" t="n">
         <v>25</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3698,13 +3765,13 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3880,10 +3947,10 @@
         <v>17</v>
       </c>
       <c r="AR19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
         <v>25</v>
@@ -3901,7 +3968,7 @@
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4056,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>6</v>
@@ -4068,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
@@ -4083,13 +4150,13 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ20" t="n">
         <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,85 +4209,85 @@
         <v>34.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
         <v>5.2</v>
       </c>
       <c r="M21" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.324</v>
+        <v>0.319</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.701</v>
+        <v>0.698</v>
       </c>
       <c r="R21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U21" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="V21" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9</v>
+        <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4229,10 +4296,10 @@
         <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>16</v>
@@ -4241,13 +4308,13 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>19</v>
@@ -4256,25 +4323,25 @@
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA21" t="n">
         <v>12</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -4306,82 +4373,82 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.762</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>79.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L22" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M22" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="N22" t="n">
         <v>0.354</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.719</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="T22" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>23.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4396,16 +4463,16 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4417,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>5</v>
@@ -4426,31 +4493,31 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -4488,103 +4555,103 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.381</v>
+        <v>0.35</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J23" t="n">
         <v>79.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M23" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="O23" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P23" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.698</v>
+        <v>0.699</v>
       </c>
       <c r="R23" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X23" t="n">
         <v>5.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>20</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -4596,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
@@ -4605,31 +4672,31 @@
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY23" t="n">
         <v>12</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>12</v>
@@ -4641,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -4670,82 +4737,82 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.727</v>
+        <v>0.762</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="J24" t="n">
-        <v>86.2</v>
+        <v>85.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.494</v>
+        <v>0.495</v>
       </c>
       <c r="L24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.778</v>
+        <v>0.782</v>
       </c>
       <c r="R24" t="n">
         <v>8.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>33</v>
       </c>
       <c r="T24" t="n">
-        <v>40.9</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z24" t="n">
         <v>18.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.4</v>
+        <v>110.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4766,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>2</v>
@@ -4781,10 +4848,10 @@
         <v>8</v>
       </c>
       <c r="AO24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP24" t="n">
         <v>27</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>28</v>
       </c>
       <c r="AQ24" t="n">
         <v>7</v>
@@ -4793,31 +4860,31 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>-4.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH25" t="n">
         <v>17</v>
       </c>
-      <c r="AG25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16</v>
-      </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
@@ -4984,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
@@ -4999,13 +5066,13 @@
         <v>10</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5101,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J26" t="n">
         <v>79.3</v>
@@ -5058,76 +5125,76 @@
         <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M26" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.349</v>
+        <v>0.343</v>
       </c>
       <c r="O26" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="P26" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.804</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S26" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="V26" t="n">
         <v>15.6</v>
       </c>
       <c r="W26" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5142,7 +5209,7 @@
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>22</v>
@@ -5169,19 +5236,19 @@
         <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ26" t="n">
         <v>22</v>
       </c>
       <c r="BA26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5342,7 +5409,7 @@
         <v>15</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ27" t="n">
         <v>3</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>-7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>30</v>
@@ -5488,13 +5555,13 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
@@ -5536,13 +5603,13 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5679,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>5</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>6.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
@@ -5885,10 +5952,10 @@
         <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5903,13 +5970,13 @@
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6031,10 +6098,10 @@
         <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>10</v>
@@ -6046,13 +6113,13 @@
         <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>10</v>
@@ -6064,7 +6131,7 @@
         <v>5</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
         <v>13</v>
@@ -6076,16 +6143,16 @@
         <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>4</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-10-2007-08</t>
+          <t>2007-12-10</t>
         </is>
       </c>
     </row>
